--- a/public/discussion/POS Validation.xlsx
+++ b/public/discussion/POS Validation.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Test\Test\public\discussion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -142,13 +147,6 @@
   <si>
     <t>1) User entered charges in amount or percenatge.
 2) This charges amount is automatically added by the amount of the every item.</t>
-  </si>
-  <si>
-    <t>1) Show pop-up on click of Disc button.
-2) This pop-up field depends on the parameter "OTP Mandatory = Y/N".
-3) If OTP is mandatory="N" then show the fields User-code, Password, Disc-Amt, Disc-percentage, Apply and Closed.
-4) If OTP is mandatory= "Y" then show the fields OTP, Disc-Amt, Disc-percentage, Apply &amp; Close.
-5) This discount amount is automatically divided by the amount of the every item.</t>
   </si>
   <si>
     <t>Last Bill No</t>
@@ -178,12 +176,47 @@
   <si>
     <t>POS (Counter-Sale)</t>
   </si>
+  <si>
+    <t xml:space="preserve">or </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Show pop-up on click of Disc button.
+2) This pop-up field depends on the parameter "OTP Mandatory = Y/N".
+3) If OTP is mandatory="N" then show the fields User-code, Password, Disc-Amt, Disc-percentage, Apply and Closed.
+4) If OTP is mandatory= "Y" then show the fields OTP, Disc-Amt, Disc-percentage, Apply &amp; Close.
+5) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This discount amount is automatically divided by the amount of the every item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) item_barcode -&gt; itemcode.   search itemcode in stock_details </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +239,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +269,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -256,16 +320,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,8 +634,8 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,17 +645,17 @@
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -593,23 +678,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -647,133 +732,135 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" s="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" s="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="55.15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="55.15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" s="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="41.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="41.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -785,13 +872,13 @@
         <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -814,14 +901,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -832,14 +919,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -850,16 +937,18 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>

--- a/public/discussion/POS Validation.xlsx
+++ b/public/discussion/POS Validation.xlsx
@@ -327,9 +327,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -351,6 +348,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,8 +634,8 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,13 +649,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -678,23 +678,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -732,61 +732,61 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+    <row r="6" spans="1:8" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="55.15" x14ac:dyDescent="0.3">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -806,59 +806,59 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+    <row r="10" spans="1:8" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" ht="41.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" s="16" customFormat="1" ht="41.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">

--- a/public/discussion/POS Validation.xlsx
+++ b/public/discussion/POS Validation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>Disc option: amt/percentage, readonly</t>
-  </si>
-  <si>
-    <t>1) If yes, then Customer ID should be mandatory.
-2) Payment Mode "Home-Delivery" will be auto selected.</t>
   </si>
   <si>
     <t>Show customer points from customer master.</t>
@@ -211,12 +207,37 @@
   <si>
     <t xml:space="preserve">1) item_barcode -&gt; itemcode.   search itemcode in stock_details </t>
   </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) If yes, then Customer ID should be mandatory.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2) Payment Mode "Home-Delivery" will be auto selected.</t>
+    </r>
+  </si>
+  <si>
+    <t>as discussed point no 5 working on later.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +279,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,19 +311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -327,27 +358,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -631,360 +658,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="F4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" s="16" customFormat="1" ht="41.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/discussion/POS Validation.xlsx
+++ b/public/discussion/POS Validation.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Test\Test\public\discussion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -176,9 +172,64 @@
     <t xml:space="preserve">or </t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) If yes, then Customer ID should be mandatory.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2) Payment Mode "Home-Delivery" will be auto selected.</t>
+    </r>
+  </si>
+  <si>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Batch-No</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Recd-Date</t>
+  </si>
+  <si>
+    <t>Bal-Qty</t>
+  </si>
+  <si>
+    <t>1) item_barcode -&gt; itemcode.   search itemcode in stock_details   ----&gt;SELECT item_code,batch_no,mrp,sale_rate,recd_date,SUM(bal_qty) FROM `stock_detail` WHERE `item_code` = 1 and bal_qty &gt; 0 GROUP by mrp,cost_rate,sale_rate,recd_date;   -----&gt;</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ELSE</t>
+  </si>
+  <si>
+    <t>Cost-Rate</t>
+  </si>
+  <si>
+    <t>cost-rate</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1) Show pop-up on click of Disc button.
-2) This pop-up field depends on the parameter "OTP Mandatory = Y/N".
+2) This pop-up field depends on the parameter "OTP Mandatory = Y/N/B".
 3) If OTP is mandatory="N" then show the fields User-code, Password, Disc-Amt, Disc-percentage, Apply and Closed.
 4) If OTP is mandatory= "Y" then show the fields OTP, Disc-Amt, Disc-percentage, Apply &amp; Close.
 5) </t>
@@ -205,32 +256,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1) item_barcode -&gt; itemcode.   search itemcode in stock_details </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) If yes, then Customer ID should be mandatory.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2) Payment Mode "Home-Delivery" will be auto selected.</t>
-    </r>
-  </si>
-  <si>
-    <t>as discussed point no 5 working on later.</t>
+    <t>waiting data</t>
+  </si>
+  <si>
+    <t>as discussed point no 5 working on later.   Otp man both display new popup, and show otp or login and then proced with exsit popup</t>
   </si>
 </sst>
 </file>
@@ -302,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +344,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -324,11 +359,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -378,6 +428,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,9 +714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +727,7 @@
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.42578125" customWidth="1"/>
+    <col min="7" max="7" width="201.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -692,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -715,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>7</v>
@@ -774,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>13</v>
@@ -795,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -816,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
@@ -837,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>20</v>
@@ -879,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>23</v>
@@ -889,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -900,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>24</v>
@@ -921,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -931,10 +985,10 @@
         <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -944,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -965,7 +1019,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
@@ -986,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
@@ -1018,7 +1072,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1063,4 +1117,376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3" s="19">
+        <v>44562</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>99</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4" s="19">
+        <v>44564</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5" s="19">
+        <v>44565</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>82</v>
+      </c>
+      <c r="G6" s="19">
+        <v>44599</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7" s="19">
+        <v>44628</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>1</v>
+      </c>
+      <c r="B11" s="22">
+        <v>100</v>
+      </c>
+      <c r="C11" s="22">
+        <v>99</v>
+      </c>
+      <c r="D11" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22">
+        <v>95</v>
+      </c>
+      <c r="C12" s="22">
+        <v>95</v>
+      </c>
+      <c r="D12" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22">
+        <v>120</v>
+      </c>
+      <c r="C13" s="22">
+        <v>100</v>
+      </c>
+      <c r="D13" s="22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>82</v>
+      </c>
+      <c r="G16" s="19">
+        <v>44599</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="20">
+        <v>100</v>
+      </c>
+      <c r="E21" s="20">
+        <v>99</v>
+      </c>
+      <c r="F21" s="20">
+        <v>70</v>
+      </c>
+      <c r="G21" s="21">
+        <v>44562</v>
+      </c>
+      <c r="H21" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22" s="19">
+        <v>44564</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/public/discussion/POS Validation.xlsx
+++ b/public/discussion/POS Validation.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Test\Test\public\discussion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -260,6 +266,12 @@
   </si>
   <si>
     <t>as discussed point no 5 working on later.   Otp man both display new popup, and show otp or login and then proced with exsit popup</t>
+  </si>
+  <si>
+    <t>fifo</t>
+  </si>
+  <si>
+    <t>temp_table</t>
   </si>
 </sst>
 </file>
@@ -425,13 +437,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
@@ -731,14 +743,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1121,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1147,7 @@
     <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1180,14 +1192,17 @@
       <c r="F3">
         <v>70</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>44562</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1206,14 +1221,14 @@
       <c r="F4">
         <v>75</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>44564</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1232,14 +1247,14 @@
       <c r="F5">
         <v>80</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>44565</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1258,14 +1273,14 @@
       <c r="F6">
         <v>82</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>44599</v>
       </c>
       <c r="H6">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1284,73 +1299,73 @@
       <c r="F7">
         <v>80</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>44628</v>
       </c>
       <c r="H7">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="19"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21">
         <v>100</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>99</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>1</v>
-      </c>
-      <c r="B12" s="22">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21">
         <v>95</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>95</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>1</v>
-      </c>
-      <c r="B13" s="22">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21">
         <v>120</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>100</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1395,19 +1410,19 @@
       <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>44599</v>
       </c>
       <c r="H16">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1433,33 +1448,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="20">
-        <v>1</v>
-      </c>
-      <c r="C21" s="20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>1</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19">
         <v>-1</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>100</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>99</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <v>70</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>44562</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1478,7 +1496,7 @@
       <c r="F22">
         <v>75</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <v>44564</v>
       </c>
       <c r="H22">
@@ -1489,4 +1507,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/discussion/POS Validation.xlsx
+++ b/public/discussion/POS Validation.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>temp_table</t>
+  </si>
+  <si>
+    <t>Sku = barcode , amcount=rate*qty , if same item scaned multiple times then plus qty, amount, disc ,  1 scan = 1 qty</t>
   </si>
 </sst>
 </file>
@@ -727,8 +730,8 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1099,9 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
@@ -1135,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
